--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927034.836149389</v>
+        <v>922516.2413596765</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30168825.07796263</v>
+        <v>30168825.07796264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7408878.579128026</v>
+        <v>7408878.579128028</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4708293.067761438</v>
+        <v>4708293.067761437</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>166.8510863728719</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>347.6331249761752</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>15.05929648976342</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1545,10 +1545,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.035959813722037</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V13" t="n">
-        <v>79.21802500998844</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>20.03742049178239</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>94.92167620694526</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T14" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>90.4393855079518</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,10 +1782,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3346473620106</v>
+        <v>78.16361926069625</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>25.81969061064959</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>146.5048560806119</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>129.0902903967875</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T19" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3346473620106</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9931505476385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>198.8876940431257</v>
       </c>
       <c r="Y20" t="n">
-        <v>307.2490030605364</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>154.3122222551163</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I22" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.51981565814032</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>70.94204411656152</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.8164617558294</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.0176309990603</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H25" t="n">
-        <v>1.965057532918355</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>32.98228602479135</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U25" t="n">
         <v>277.3346473620106</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>356.7353547295934</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>347.6331249761748</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.66051831019647</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T28" t="n">
         <v>237.149349835783</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>56.4998471669608</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>363.0727521308625</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>227.6718940632623</v>
       </c>
       <c r="G29" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>134.5413714187498</v>
       </c>
       <c r="I31" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.149349835783</v>
+        <v>182.3891230224448</v>
       </c>
       <c r="U31" t="n">
         <v>277.3346473620106</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>92.96922766567207</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.7353547295934</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>28.48268330027868</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4395577963984</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>35.74626524628641</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T34" t="n">
         <v>237.149349835783</v>
@@ -3246,10 +3246,10 @@
         <v>277.3346473620106</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>332.2907589696991</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.91889297376383</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T37" t="n">
-        <v>106.6775865566013</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3346473620106</v>
+        <v>157.4665323200791</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>80.48930884335545</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6145573178477</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>277.5406537501042</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T40" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3346473620106</v>
+        <v>17.79947334296777</v>
       </c>
       <c r="V40" t="n">
-        <v>220.2747407400705</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>194.7114750834188</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>305.0579277504485</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>83.98851850634114</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,10 +3915,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T43" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>94.22253622219395</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>73.63823862564374</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>335.4130625764112</v>
       </c>
       <c r="G44" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.8164617558294</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T44" t="n">
         <v>210.1362515435019</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>56.68356912259563</v>
       </c>
       <c r="U46" t="n">
         <v>277.3346473620106</v>
@@ -4197,10 +4197,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>35.23116230779193</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>468.9748772237518</v>
+        <v>1059.880158785883</v>
       </c>
       <c r="C11" t="n">
-        <v>42.07414723705196</v>
+        <v>1059.880158785883</v>
       </c>
       <c r="D11" t="n">
-        <v>42.07414723705196</v>
+        <v>636.5875379708832</v>
       </c>
       <c r="E11" t="n">
-        <v>42.07414723705196</v>
+        <v>210.6105981187408</v>
       </c>
       <c r="F11" t="n">
-        <v>42.07414723705196</v>
+        <v>210.6105981187408</v>
       </c>
       <c r="G11" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="H11" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I11" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224501</v>
       </c>
       <c r="J11" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562427</v>
       </c>
       <c r="K11" t="n">
         <v>429.6707399497114</v>
       </c>
       <c r="L11" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441458</v>
       </c>
       <c r="M11" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N11" t="n">
         <v>1310.954347754825</v>
@@ -5059,34 +5059,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P11" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506417</v>
       </c>
       <c r="Q11" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143955</v>
       </c>
       <c r="R11" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S11" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T11" t="n">
-        <v>1832.196735023441</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="U11" t="n">
-        <v>1574.000212480161</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="V11" t="n">
-        <v>1216.51079760641</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="W11" t="n">
-        <v>820.1194479067572</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="X11" t="n">
-        <v>468.9748772237518</v>
+        <v>1479.728523077413</v>
       </c>
       <c r="Y11" t="n">
-        <v>468.9748772237518</v>
+        <v>1479.728523077413</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F12" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G12" t="n">
-        <v>85.21957929949143</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H12" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I12" t="n">
-        <v>61.80940056264828</v>
+        <v>85.26670640706008</v>
       </c>
       <c r="J12" t="n">
-        <v>425.9352661328915</v>
+        <v>162.9512294640159</v>
       </c>
       <c r="K12" t="n">
-        <v>571.4106484638128</v>
+        <v>308.4266117949371</v>
       </c>
       <c r="L12" t="n">
-        <v>774.5476657226884</v>
+        <v>511.5636290538125</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.744474587678</v>
+        <v>751.7604379188019</v>
       </c>
       <c r="N12" t="n">
-        <v>1263.639983054221</v>
+        <v>1000.655946385345</v>
       </c>
       <c r="O12" t="n">
-        <v>1487.720030896814</v>
+        <v>1224.735994227937</v>
       </c>
       <c r="P12" t="n">
-        <v>1664.422401271944</v>
+        <v>1401.438364603068</v>
       </c>
       <c r="Q12" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R12" t="n">
         <v>1815.456240001607</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.764117367796</v>
+        <v>724.0411943234631</v>
       </c>
       <c r="C13" t="n">
-        <v>917.7915542467121</v>
+        <v>708.8297837277424</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4747813734828</v>
+        <v>545.5130108545131</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2665755263363</v>
+        <v>379.3048050073667</v>
       </c>
       <c r="F13" t="n">
-        <v>416.4048013008967</v>
+        <v>207.4430307819271</v>
       </c>
       <c r="G13" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I13" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18197532575655</v>
+        <v>161.1036919739774</v>
       </c>
       <c r="K13" t="n">
-        <v>163.5531609411885</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L13" t="n">
-        <v>271.2602998248222</v>
+        <v>972.8535191782298</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9278718833402</v>
+        <v>1086.945066465606</v>
       </c>
       <c r="N13" t="n">
-        <v>1302.616347984966</v>
+        <v>1199.600619725352</v>
       </c>
       <c r="O13" t="n">
-        <v>1507.950253869572</v>
+        <v>1507.950253869571</v>
       </c>
       <c r="P13" t="n">
-        <v>1903.821991506512</v>
+        <v>1903.821991506511</v>
       </c>
       <c r="Q13" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R13" t="n">
-        <v>2103.707361852598</v>
+        <v>2096.600331737726</v>
       </c>
       <c r="S13" t="n">
-        <v>2103.707361852598</v>
+        <v>1941.942203988054</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.707361852598</v>
+        <v>1702.397406174132</v>
       </c>
       <c r="U13" t="n">
-        <v>2103.707361852598</v>
+        <v>1422.261398737758</v>
       </c>
       <c r="V13" t="n">
-        <v>2023.689154771801</v>
+        <v>1140.549931345787</v>
       </c>
       <c r="W13" t="n">
-        <v>1748.836750944314</v>
+        <v>1140.549931345787</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.27285439012</v>
+        <v>1140.549931345787</v>
       </c>
       <c r="Y13" t="n">
-        <v>1279.930086079862</v>
+        <v>914.2071630355288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.31396591562003</v>
+        <v>1412.34837073191</v>
       </c>
       <c r="C14" t="n">
-        <v>62.31396591562003</v>
+        <v>1412.34837073191</v>
       </c>
       <c r="D14" t="n">
-        <v>62.31396591562003</v>
+        <v>989.0557499169106</v>
       </c>
       <c r="E14" t="n">
-        <v>42.07414723705196</v>
+        <v>563.0788100647682</v>
       </c>
       <c r="F14" t="n">
-        <v>42.07414723705196</v>
+        <v>137.9546282541684</v>
       </c>
       <c r="G14" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="H14" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I14" t="n">
-        <v>82.68042202224478</v>
+        <v>82.6804220222449</v>
       </c>
       <c r="J14" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K14" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497109</v>
       </c>
       <c r="L14" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M14" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N14" t="n">
         <v>1310.954347754825</v>
       </c>
       <c r="O14" t="n">
-        <v>1600.879106339949</v>
+        <v>1600.879106339948</v>
       </c>
       <c r="P14" t="n">
         <v>1842.716767506418</v>
       </c>
       <c r="Q14" t="n">
-        <v>2016.498708143956</v>
+        <v>2016.498708143955</v>
       </c>
       <c r="R14" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S14" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T14" t="n">
-        <v>1891.448521909667</v>
+        <v>1832.19673502344</v>
       </c>
       <c r="U14" t="n">
-        <v>1633.251999366386</v>
+        <v>1832.19673502344</v>
       </c>
       <c r="V14" t="n">
-        <v>1275.762584492636</v>
+        <v>1832.19673502344</v>
       </c>
       <c r="W14" t="n">
-        <v>879.3712347929825</v>
+        <v>1832.19673502344</v>
       </c>
       <c r="X14" t="n">
-        <v>467.6512359607297</v>
+        <v>1832.19673502344</v>
       </c>
       <c r="Y14" t="n">
-        <v>62.31396591562003</v>
+        <v>1832.19673502344</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F15" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G15" t="n">
-        <v>85.21957929949143</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H15" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I15" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J15" t="n">
-        <v>162.9512294640159</v>
+        <v>425.9352661328917</v>
       </c>
       <c r="K15" t="n">
-        <v>308.4266117949372</v>
+        <v>571.410648463813</v>
       </c>
       <c r="L15" t="n">
-        <v>511.5636290538127</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M15" t="n">
-        <v>751.7604379188022</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.655946385345</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P15" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R15" t="n">
         <v>1815.456240001607</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.6194901808331</v>
+        <v>880.8023468488265</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6194901808331</v>
+        <v>708.8297837277424</v>
       </c>
       <c r="D16" t="n">
-        <v>679.6194901808331</v>
+        <v>545.5130108545131</v>
       </c>
       <c r="E16" t="n">
-        <v>588.2665755263363</v>
+        <v>379.3048050073667</v>
       </c>
       <c r="F16" t="n">
-        <v>416.4048013008967</v>
+        <v>207.4430307819271</v>
       </c>
       <c r="G16" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I16" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="J16" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575653</v>
       </c>
       <c r="K16" t="n">
-        <v>241.4748775894093</v>
+        <v>163.5531609411884</v>
       </c>
       <c r="L16" t="n">
-        <v>349.1820164730431</v>
+        <v>647.649193415987</v>
       </c>
       <c r="M16" t="n">
-        <v>869.849588531561</v>
+        <v>1168.316765474505</v>
       </c>
       <c r="N16" t="n">
-        <v>1029.493169250436</v>
+        <v>1280.972318734251</v>
       </c>
       <c r="O16" t="n">
-        <v>1507.950253869572</v>
+        <v>1659.323751247471</v>
       </c>
       <c r="P16" t="n">
-        <v>1903.821991506512</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q16" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R16" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S16" t="n">
-        <v>1949.049234102926</v>
+        <v>1949.049234102925</v>
       </c>
       <c r="T16" t="n">
-        <v>1949.049234102926</v>
+        <v>1949.049234102925</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.913226666552</v>
+        <v>1870.096083334545</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.201759274581</v>
+        <v>1588.384615942574</v>
       </c>
       <c r="W16" t="n">
-        <v>1112.349355447094</v>
+        <v>1313.532212115087</v>
       </c>
       <c r="X16" t="n">
-        <v>869.7854588928986</v>
+        <v>1070.968315560892</v>
       </c>
       <c r="Y16" t="n">
-        <v>869.7854588928986</v>
+        <v>1070.968315560892</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.6512359607302</v>
+        <v>921.032312642207</v>
       </c>
       <c r="C17" t="n">
-        <v>467.6512359607302</v>
+        <v>494.1315826555071</v>
       </c>
       <c r="D17" t="n">
-        <v>467.6512359607302</v>
+        <v>468.0510870891944</v>
       </c>
       <c r="E17" t="n">
-        <v>467.6512359607302</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="F17" t="n">
-        <v>467.6512359607302</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G17" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H17" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I17" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224433</v>
       </c>
       <c r="J17" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562425</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6707399497115</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L17" t="n">
         <v>697.957333344146</v>
       </c>
       <c r="M17" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N17" t="n">
         <v>1310.954347754825</v>
       </c>
       <c r="O17" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P17" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q17" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R17" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S17" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T17" t="n">
-        <v>1891.448521909667</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="U17" t="n">
-        <v>1633.251999366387</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="V17" t="n">
-        <v>1275.762584492636</v>
+        <v>1746.217946978847</v>
       </c>
       <c r="W17" t="n">
-        <v>879.3712347929829</v>
+        <v>1746.217946978847</v>
       </c>
       <c r="X17" t="n">
-        <v>467.6512359607302</v>
+        <v>1746.217946978847</v>
       </c>
       <c r="Y17" t="n">
-        <v>467.6512359607302</v>
+        <v>1340.880676933737</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F18" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G18" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H18" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I18" t="n">
-        <v>85.26670640706013</v>
+        <v>85.2667064070601</v>
       </c>
       <c r="J18" t="n">
         <v>162.9512294640159</v>
       </c>
       <c r="K18" t="n">
-        <v>465.9551481789068</v>
+        <v>308.4266117949371</v>
       </c>
       <c r="L18" t="n">
-        <v>669.0921654377823</v>
+        <v>511.5636290538126</v>
       </c>
       <c r="M18" t="n">
-        <v>909.2889743027717</v>
+        <v>751.760437918802</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.184482769315</v>
+        <v>1000.655946385345</v>
       </c>
       <c r="O18" t="n">
-        <v>1382.264530611908</v>
+        <v>1224.735994227938</v>
       </c>
       <c r="P18" t="n">
         <v>1558.966900987038</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>924.3952338229209</v>
+        <v>679.6194901808326</v>
       </c>
       <c r="C19" t="n">
-        <v>752.4226707018369</v>
+        <v>507.6469270597486</v>
       </c>
       <c r="D19" t="n">
-        <v>589.1058978286076</v>
+        <v>344.3301541865193</v>
       </c>
       <c r="E19" t="n">
-        <v>422.8976919814611</v>
+        <v>213.9359214624915</v>
       </c>
       <c r="F19" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G19" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H19" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I19" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J19" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575654</v>
       </c>
       <c r="K19" t="n">
-        <v>318.6500362285153</v>
+        <v>410.8357700552104</v>
       </c>
       <c r="L19" t="n">
-        <v>802.746068703314</v>
+        <v>894.931802530009</v>
       </c>
       <c r="M19" t="n">
-        <v>916.8376159906902</v>
+        <v>1009.023349817385</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.493169250436</v>
+        <v>1493.622871201642</v>
       </c>
       <c r="O19" t="n">
-        <v>1507.950253869573</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P19" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q19" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R19" t="n">
-        <v>2096.600331737728</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S19" t="n">
-        <v>1941.942203988056</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T19" t="n">
-        <v>1702.397406174133</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="U19" t="n">
-        <v>1422.261398737759</v>
+        <v>1668.913226666551</v>
       </c>
       <c r="V19" t="n">
-        <v>1140.549931345788</v>
+        <v>1387.20175927458</v>
       </c>
       <c r="W19" t="n">
-        <v>1140.549931345788</v>
+        <v>1112.349355447093</v>
       </c>
       <c r="X19" t="n">
-        <v>1140.549931345788</v>
+        <v>869.7854588928982</v>
       </c>
       <c r="Y19" t="n">
-        <v>924.3952338229209</v>
+        <v>869.7854588928982</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>722.0257595057121</v>
+        <v>468.9748772237518</v>
       </c>
       <c r="C20" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="D20" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="E20" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="F20" t="n">
-        <v>722.0257595057121</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="G20" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705196</v>
       </c>
       <c r="H20" t="n">
         <v>42.07414723705196</v>
       </c>
       <c r="I20" t="n">
-        <v>82.68042202224478</v>
+        <v>82.68042202224493</v>
       </c>
       <c r="J20" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L20" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441459</v>
       </c>
       <c r="M20" t="n">
-        <v>1001.624145372457</v>
+        <v>1001.624145372458</v>
       </c>
       <c r="N20" t="n">
         <v>1310.954347754825</v>
@@ -5770,7 +5770,7 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P20" t="n">
-        <v>1842.716767506418</v>
+        <v>1842.716767506419</v>
       </c>
       <c r="Q20" t="n">
         <v>2016.498708143956</v>
@@ -5779,25 +5779,25 @@
         <v>2103.707361852598</v>
       </c>
       <c r="S20" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="T20" t="n">
-        <v>2044.455574966373</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="U20" t="n">
-        <v>1786.259052423092</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="V20" t="n">
-        <v>1428.769637549341</v>
+        <v>1891.448521909667</v>
       </c>
       <c r="W20" t="n">
-        <v>1032.378287849688</v>
+        <v>1495.057172210014</v>
       </c>
       <c r="X20" t="n">
-        <v>1032.378287849688</v>
+        <v>1294.160511560392</v>
       </c>
       <c r="Y20" t="n">
-        <v>722.0257595057121</v>
+        <v>888.8232415152819</v>
       </c>
     </row>
     <row r="21">
@@ -5843,16 +5843,16 @@
         <v>728.3031320743903</v>
       </c>
       <c r="N21" t="n">
-        <v>977.1986405409336</v>
+        <v>977.1986405409335</v>
       </c>
       <c r="O21" t="n">
-        <v>1201.278688383526</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P21" t="n">
-        <v>1377.981058758656</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q21" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R21" t="n">
         <v>1815.456240001607</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.764117367796</v>
+        <v>736.4318280472219</v>
       </c>
       <c r="C22" t="n">
-        <v>917.7915542467121</v>
+        <v>736.4318280472219</v>
       </c>
       <c r="D22" t="n">
-        <v>754.4747813734828</v>
+        <v>573.1150551739926</v>
       </c>
       <c r="E22" t="n">
-        <v>588.2665755263363</v>
+        <v>406.9068493268461</v>
       </c>
       <c r="F22" t="n">
-        <v>416.4048013008967</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="G22" t="n">
         <v>251.0359177560215</v>
@@ -5913,19 +5913,19 @@
         <v>161.1036919739774</v>
       </c>
       <c r="K22" t="n">
-        <v>241.4748775894093</v>
+        <v>488.7574867034314</v>
       </c>
       <c r="L22" t="n">
-        <v>725.570910064208</v>
+        <v>802.7460687033135</v>
       </c>
       <c r="M22" t="n">
-        <v>1246.238482122726</v>
+        <v>916.8376159906898</v>
       </c>
       <c r="N22" t="n">
-        <v>1719.951698126947</v>
+        <v>1029.493169250436</v>
       </c>
       <c r="O22" t="n">
-        <v>1820.70645844288</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P22" t="n">
         <v>1903.821991506512</v>
@@ -5934,28 +5934,28 @@
         <v>2103.707361852598</v>
       </c>
       <c r="R22" t="n">
-        <v>2096.600331737727</v>
+        <v>2103.707361852598</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.942203988055</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.942203988055</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="U22" t="n">
-        <v>1941.942203988055</v>
+        <v>1709.504436289004</v>
       </c>
       <c r="V22" t="n">
-        <v>1660.230736596084</v>
+        <v>1427.792968897033</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.378332768597</v>
+        <v>1152.940565069546</v>
       </c>
       <c r="X22" t="n">
-        <v>1142.814436214402</v>
+        <v>1152.940565069546</v>
       </c>
       <c r="Y22" t="n">
-        <v>1089.764117367796</v>
+        <v>926.5977967592876</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1570.442562131312</v>
+        <v>391.3251632697701</v>
       </c>
       <c r="C23" t="n">
-        <v>1570.442562131312</v>
+        <v>391.3251632697701</v>
       </c>
       <c r="D23" t="n">
-        <v>1147.149941316312</v>
+        <v>391.3251632697701</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.149941316312</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="F23" t="n">
-        <v>722.0257595057121</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="G23" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H23" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I23" t="n">
         <v>82.68042202224478</v>
       </c>
       <c r="J23" t="n">
-        <v>218.2468288562425</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6707399497113</v>
+        <v>429.670739949711</v>
       </c>
       <c r="L23" t="n">
-        <v>697.9573333441458</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M23" t="n">
         <v>1001.624145372457</v>
@@ -6013,28 +6013,28 @@
         <v>2016.498708143956</v>
       </c>
       <c r="R23" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S23" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T23" t="n">
-        <v>2103.707361852598</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="U23" t="n">
-        <v>2103.707361852598</v>
+        <v>1574.00021248016</v>
       </c>
       <c r="V23" t="n">
-        <v>1746.217946978847</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="W23" t="n">
-        <v>1746.217946978847</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.217946978847</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="Y23" t="n">
-        <v>1570.442562131312</v>
+        <v>811.1735275613001</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F24" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G24" t="n">
-        <v>85.21957929949143</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H24" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I24" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9512294640159</v>
+        <v>425.9352661328917</v>
       </c>
       <c r="K24" t="n">
-        <v>308.4266117949372</v>
+        <v>571.410648463813</v>
       </c>
       <c r="L24" t="n">
-        <v>511.5636290538127</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M24" t="n">
-        <v>751.7604379188022</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N24" t="n">
-        <v>1000.655946385345</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P24" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q24" t="n">
         <v>1774.431386909859</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>882.787253447734</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="C25" t="n">
-        <v>710.81469032665</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="D25" t="n">
-        <v>547.4979174534207</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="E25" t="n">
-        <v>381.2897116062742</v>
+        <v>588.2665755263363</v>
       </c>
       <c r="F25" t="n">
-        <v>209.4279373808346</v>
+        <v>416.4048013008967</v>
       </c>
       <c r="G25" t="n">
-        <v>44.05905383595939</v>
+        <v>251.0359177560215</v>
       </c>
       <c r="H25" t="n">
-        <v>42.07414723705196</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I25" t="n">
-        <v>42.07414723705196</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J25" t="n">
-        <v>83.18197532575655</v>
+        <v>83.18197532575654</v>
       </c>
       <c r="K25" t="n">
-        <v>163.5531609411885</v>
+        <v>410.8357700552104</v>
       </c>
       <c r="L25" t="n">
-        <v>462.2668230414988</v>
+        <v>802.7460687033131</v>
       </c>
       <c r="M25" t="n">
-        <v>982.9343951000168</v>
+        <v>916.8376159906893</v>
       </c>
       <c r="N25" t="n">
-        <v>1493.622871201643</v>
+        <v>1029.493169250435</v>
       </c>
       <c r="O25" t="n">
-        <v>1972.079955820779</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P25" t="n">
-        <v>2055.195488884412</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q25" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R25" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S25" t="n">
-        <v>2103.707361852598</v>
+        <v>2070.391921423515</v>
       </c>
       <c r="T25" t="n">
-        <v>2103.707361852598</v>
+        <v>1830.847123609593</v>
       </c>
       <c r="U25" t="n">
-        <v>1823.571354416224</v>
+        <v>1550.711116173219</v>
       </c>
       <c r="V25" t="n">
-        <v>1541.859887024252</v>
+        <v>1268.999648781248</v>
       </c>
       <c r="W25" t="n">
-        <v>1541.859887024252</v>
+        <v>994.1472449537605</v>
       </c>
       <c r="X25" t="n">
-        <v>1299.295990470058</v>
+        <v>751.5833483995656</v>
       </c>
       <c r="Y25" t="n">
-        <v>1072.9532221598</v>
+        <v>751.5833483995656</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1743.368619701494</v>
+        <v>468.9748772237518</v>
       </c>
       <c r="C26" t="n">
-        <v>1316.467889714794</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="D26" t="n">
-        <v>893.1752688997942</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="E26" t="n">
-        <v>467.1983290476518</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="F26" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G26" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H26" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I26" t="n">
-        <v>82.68042202224524</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J26" t="n">
-        <v>218.2468288562429</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6707399497118</v>
+        <v>429.670739949711</v>
       </c>
       <c r="L26" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M26" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N26" t="n">
         <v>1310.954347754825</v>
@@ -6244,34 +6244,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q26" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R26" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S26" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T26" t="n">
-        <v>2103.707361852598</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="U26" t="n">
-        <v>2103.707361852598</v>
+        <v>1574.00021248016</v>
       </c>
       <c r="V26" t="n">
-        <v>2103.707361852598</v>
+        <v>1216.51079760641</v>
       </c>
       <c r="W26" t="n">
-        <v>2103.707361852598</v>
+        <v>820.1194479067567</v>
       </c>
       <c r="X26" t="n">
-        <v>2103.707361852598</v>
+        <v>468.9748772237518</v>
       </c>
       <c r="Y26" t="n">
-        <v>2103.707361852598</v>
+        <v>468.9748772237518</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F27" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G27" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H27" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I27" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J27" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K27" t="n">
-        <v>308.4266117949372</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L27" t="n">
-        <v>511.5636290538127</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M27" t="n">
-        <v>751.7604379188022</v>
+        <v>1014.744474587678</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.655946385345</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P27" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q27" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R27" t="n">
         <v>1815.456240001607</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>714.5941410016801</v>
+        <v>679.3612753533216</v>
       </c>
       <c r="C28" t="n">
-        <v>542.6215778805961</v>
+        <v>679.3612753533216</v>
       </c>
       <c r="D28" t="n">
-        <v>379.3048050073668</v>
+        <v>516.0445024800923</v>
       </c>
       <c r="E28" t="n">
-        <v>379.3048050073668</v>
+        <v>349.8362966329458</v>
       </c>
       <c r="F28" t="n">
-        <v>207.4430307819272</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="G28" t="n">
-        <v>42.07414723705197</v>
+        <v>177.9745224075063</v>
       </c>
       <c r="H28" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I28" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J28" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K28" t="n">
-        <v>488.7574867034314</v>
+        <v>241.4748775894093</v>
       </c>
       <c r="L28" t="n">
-        <v>972.85351917823</v>
+        <v>725.570910064208</v>
       </c>
       <c r="M28" t="n">
-        <v>1360.63671940322</v>
+        <v>1246.238482122726</v>
       </c>
       <c r="N28" t="n">
-        <v>1871.325195504846</v>
+        <v>1756.926958224352</v>
       </c>
       <c r="O28" t="n">
-        <v>1972.07995582078</v>
+        <v>1857.681718540285</v>
       </c>
       <c r="P28" t="n">
-        <v>2055.195488884412</v>
+        <v>1940.797251603918</v>
       </c>
       <c r="Q28" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R28" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S28" t="n">
-        <v>2103.707361852598</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T28" t="n">
-        <v>1864.162564038676</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="U28" t="n">
-        <v>1584.026556602302</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.315089210331</v>
+        <v>1427.792968897032</v>
       </c>
       <c r="W28" t="n">
-        <v>1027.462685382844</v>
+        <v>1152.940565069545</v>
       </c>
       <c r="X28" t="n">
-        <v>1027.462685382844</v>
+        <v>1095.870012375645</v>
       </c>
       <c r="Y28" t="n">
-        <v>801.1199170725856</v>
+        <v>869.5272440653873</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>444.4333738937632</v>
+        <v>1122.239108203663</v>
       </c>
       <c r="C29" t="n">
-        <v>444.4333738937632</v>
+        <v>695.3383782169631</v>
       </c>
       <c r="D29" t="n">
-        <v>444.4333738937632</v>
+        <v>272.0457574019633</v>
       </c>
       <c r="E29" t="n">
-        <v>444.4333738937632</v>
+        <v>272.0457574019633</v>
       </c>
       <c r="F29" t="n">
-        <v>444.4333738937632</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G29" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H29" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I29" t="n">
-        <v>82.68042202224501</v>
+        <v>82.6804220222449</v>
       </c>
       <c r="J29" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6707399497116</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L29" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441459</v>
       </c>
       <c r="M29" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N29" t="n">
         <v>1310.954347754825</v>
@@ -6481,34 +6481,34 @@
         <v>1600.879106339949</v>
       </c>
       <c r="P29" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q29" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R29" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S29" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T29" t="n">
-        <v>1832.196735023442</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="U29" t="n">
-        <v>1574.000212480161</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="V29" t="n">
-        <v>1216.510797606411</v>
+        <v>1533.959107035916</v>
       </c>
       <c r="W29" t="n">
-        <v>1216.510797606411</v>
+        <v>1533.959107035916</v>
       </c>
       <c r="X29" t="n">
-        <v>1216.510797606411</v>
+        <v>1122.239108203663</v>
       </c>
       <c r="Y29" t="n">
-        <v>811.1735275613011</v>
+        <v>1122.239108203663</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F30" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G30" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H30" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I30" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J30" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K30" t="n">
-        <v>308.4266117949372</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L30" t="n">
-        <v>511.5636290538127</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M30" t="n">
-        <v>751.7604379188022</v>
+        <v>1008.773895267919</v>
       </c>
       <c r="N30" t="n">
-        <v>1000.655946385345</v>
+        <v>1263.639983054221</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P30" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q30" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R30" t="n">
         <v>1815.456240001607</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.4473444945668</v>
+        <v>917.7915542467121</v>
       </c>
       <c r="C31" t="n">
-        <v>754.4747813734828</v>
+        <v>917.7915542467121</v>
       </c>
       <c r="D31" t="n">
         <v>754.4747813734828</v>
@@ -6618,16 +6618,16 @@
         <v>115.1355425855672</v>
       </c>
       <c r="I31" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J31" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K31" t="n">
-        <v>488.7574867034314</v>
+        <v>488.7574867034313</v>
       </c>
       <c r="L31" t="n">
-        <v>972.85351917823</v>
+        <v>972.8535191782299</v>
       </c>
       <c r="M31" t="n">
         <v>1493.521091236748</v>
@@ -6636,37 +6636,37 @@
         <v>1606.176644496494</v>
       </c>
       <c r="O31" t="n">
-        <v>1706.931404812427</v>
+        <v>1972.079955820779</v>
       </c>
       <c r="P31" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q31" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R31" t="n">
-        <v>2096.600331737728</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="S31" t="n">
-        <v>2096.600331737728</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="T31" t="n">
-        <v>1857.055533923805</v>
+        <v>1912.368894341318</v>
       </c>
       <c r="U31" t="n">
-        <v>1576.919526487431</v>
+        <v>1632.232886904944</v>
       </c>
       <c r="V31" t="n">
-        <v>1295.20805909546</v>
+        <v>1350.521419512972</v>
       </c>
       <c r="W31" t="n">
-        <v>1020.355655267973</v>
+        <v>1350.521419512972</v>
       </c>
       <c r="X31" t="n">
-        <v>926.4473444945668</v>
+        <v>1107.957522958778</v>
       </c>
       <c r="Y31" t="n">
-        <v>926.4473444945668</v>
+        <v>1107.957522958778</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1743.368619701494</v>
+        <v>1624.607210674842</v>
       </c>
       <c r="C32" t="n">
-        <v>1316.467889714794</v>
+        <v>1197.706480688142</v>
       </c>
       <c r="D32" t="n">
-        <v>893.1752688997942</v>
+        <v>774.413859873142</v>
       </c>
       <c r="E32" t="n">
-        <v>467.1983290476518</v>
+        <v>348.4369200209995</v>
       </c>
       <c r="F32" t="n">
-        <v>42.07414723705197</v>
+        <v>348.4369200209995</v>
       </c>
       <c r="G32" t="n">
-        <v>42.07414723705197</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H32" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I32" t="n">
-        <v>82.68042202224524</v>
+        <v>82.68042202224493</v>
       </c>
       <c r="J32" t="n">
-        <v>218.2468288562429</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6707399497118</v>
+        <v>429.6707399497107</v>
       </c>
       <c r="L32" t="n">
-        <v>697.9573333441463</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M32" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N32" t="n">
-        <v>1310.954347754825</v>
+        <v>1310.954347754824</v>
       </c>
       <c r="O32" t="n">
-        <v>1600.879106339949</v>
+        <v>1600.879106339948</v>
       </c>
       <c r="P32" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506417</v>
       </c>
       <c r="Q32" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143955</v>
       </c>
       <c r="R32" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="U32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="V32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="W32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="X32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="Y32" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F33" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G33" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H33" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="I33" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J33" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K33" t="n">
-        <v>308.4266117949372</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L33" t="n">
-        <v>511.5636290538127</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M33" t="n">
-        <v>751.7604379188022</v>
+        <v>728.3031320743902</v>
       </c>
       <c r="N33" t="n">
-        <v>1000.655946385345</v>
+        <v>977.1986405409334</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P33" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q33" t="n">
         <v>1774.431386909859</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.4433914486244</v>
+        <v>488.5843278841389</v>
       </c>
       <c r="C34" t="n">
-        <v>323.4708283275404</v>
+        <v>316.6117647630549</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9359214624915</v>
+        <v>316.6117647630549</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9359214624915</v>
+        <v>280.5044261304424</v>
       </c>
       <c r="F34" t="n">
-        <v>42.07414723705197</v>
+        <v>280.5044261304424</v>
       </c>
       <c r="G34" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="H34" t="n">
-        <v>42.07414723705197</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="I34" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705194</v>
       </c>
       <c r="J34" t="n">
-        <v>161.1036919739774</v>
+        <v>83.18197532575653</v>
       </c>
       <c r="K34" t="n">
-        <v>318.6500362285153</v>
+        <v>163.5531609411884</v>
       </c>
       <c r="L34" t="n">
-        <v>802.746068703314</v>
+        <v>647.649193415987</v>
       </c>
       <c r="M34" t="n">
-        <v>916.8376159906902</v>
+        <v>1168.316765474505</v>
       </c>
       <c r="N34" t="n">
-        <v>1029.493169250436</v>
+        <v>1679.005241576131</v>
       </c>
       <c r="O34" t="n">
-        <v>1507.950253869573</v>
+        <v>1820.706458442879</v>
       </c>
       <c r="P34" t="n">
-        <v>1903.821991506513</v>
+        <v>1903.821991506511</v>
       </c>
       <c r="Q34" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R34" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S34" t="n">
-        <v>1949.049234102926</v>
+        <v>1949.049234102925</v>
       </c>
       <c r="T34" t="n">
-        <v>1709.504436289004</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="U34" t="n">
-        <v>1429.36842885263</v>
+        <v>1429.368428852629</v>
       </c>
       <c r="V34" t="n">
-        <v>1429.36842885263</v>
+        <v>1147.656961460657</v>
       </c>
       <c r="W34" t="n">
-        <v>1154.516025025143</v>
+        <v>1147.656961460657</v>
       </c>
       <c r="X34" t="n">
-        <v>911.952128470948</v>
+        <v>905.0930649064625</v>
       </c>
       <c r="Y34" t="n">
-        <v>685.60936016069</v>
+        <v>678.7502965962045</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2020.961005313443</v>
+        <v>1227.914729321276</v>
       </c>
       <c r="C35" t="n">
-        <v>1594.060275326743</v>
+        <v>801.0139993345761</v>
       </c>
       <c r="D35" t="n">
-        <v>1170.767654511743</v>
+        <v>377.7213785195763</v>
       </c>
       <c r="E35" t="n">
-        <v>744.7907146596008</v>
+        <v>377.7213785195763</v>
       </c>
       <c r="F35" t="n">
-        <v>319.6665328490009</v>
+        <v>377.7213785195763</v>
       </c>
       <c r="G35" t="n">
-        <v>319.6665328490009</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H35" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I35" t="n">
-        <v>82.68042202224501</v>
+        <v>82.68042202224478</v>
       </c>
       <c r="J35" t="n">
-        <v>218.2468288562427</v>
+        <v>218.2468288562422</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6707399497115</v>
+        <v>429.670739949711</v>
       </c>
       <c r="L35" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441456</v>
       </c>
       <c r="M35" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N35" t="n">
         <v>1310.954347754825</v>
       </c>
       <c r="O35" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P35" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q35" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R35" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S35" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T35" t="n">
-        <v>2103.707361852598</v>
+        <v>1891.448521909666</v>
       </c>
       <c r="U35" t="n">
-        <v>2103.707361852598</v>
+        <v>1633.251999366386</v>
       </c>
       <c r="V35" t="n">
-        <v>2103.707361852598</v>
+        <v>1633.251999366386</v>
       </c>
       <c r="W35" t="n">
-        <v>2103.707361852598</v>
+        <v>1633.251999366386</v>
       </c>
       <c r="X35" t="n">
-        <v>2103.707361852598</v>
+        <v>1633.251999366386</v>
       </c>
       <c r="Y35" t="n">
-        <v>2020.961005313443</v>
+        <v>1227.914729321276</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F36" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G36" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H36" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I36" t="n">
-        <v>61.80940056264829</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J36" t="n">
-        <v>425.9352661328915</v>
+        <v>320.4797658479857</v>
       </c>
       <c r="K36" t="n">
-        <v>571.4106484638128</v>
+        <v>465.9551481789069</v>
       </c>
       <c r="L36" t="n">
-        <v>774.5476657226884</v>
+        <v>669.0921654377825</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.744474587678</v>
+        <v>909.2889743027719</v>
       </c>
       <c r="N36" t="n">
-        <v>1263.639983054221</v>
+        <v>1158.184482769315</v>
       </c>
       <c r="O36" t="n">
-        <v>1487.720030896814</v>
+        <v>1382.264530611908</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.422401271944</v>
+        <v>1558.966900987038</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.431386909859</v>
+        <v>1668.975886624954</v>
       </c>
       <c r="R36" t="n">
         <v>1815.456240001607</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8911790762577</v>
+        <v>616.5222955313825</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8911790762577</v>
+        <v>616.5222955313825</v>
       </c>
       <c r="D37" t="n">
-        <v>618.5744062030284</v>
+        <v>453.2055226581532</v>
       </c>
       <c r="E37" t="n">
-        <v>452.3662003558819</v>
+        <v>286.9973168110067</v>
       </c>
       <c r="F37" t="n">
-        <v>280.5044261304424</v>
+        <v>115.1355425855672</v>
       </c>
       <c r="G37" t="n">
         <v>115.1355425855672</v>
@@ -7092,55 +7092,55 @@
         <v>115.1355425855672</v>
       </c>
       <c r="I37" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J37" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K37" t="n">
-        <v>241.4748775894093</v>
+        <v>470.0235336064137</v>
       </c>
       <c r="L37" t="n">
-        <v>688.5956499668032</v>
+        <v>954.1195660812123</v>
       </c>
       <c r="M37" t="n">
-        <v>1209.263222025321</v>
+        <v>1068.211113368588</v>
       </c>
       <c r="N37" t="n">
-        <v>1719.951698126947</v>
+        <v>1180.866666628334</v>
       </c>
       <c r="O37" t="n">
-        <v>1820.706458442881</v>
+        <v>1659.323751247471</v>
       </c>
       <c r="P37" t="n">
-        <v>1903.821991506513</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q37" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R37" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S37" t="n">
-        <v>2103.707361852598</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="T37" t="n">
-        <v>1995.952223916637</v>
+        <v>1709.504436289003</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.816216480263</v>
+        <v>1550.447332935388</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.816216480263</v>
+        <v>1550.447332935388</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.963812652776</v>
+        <v>1275.594929107901</v>
       </c>
       <c r="X37" t="n">
-        <v>1198.399916098581</v>
+        <v>1033.031032553706</v>
       </c>
       <c r="Y37" t="n">
-        <v>972.0571477883234</v>
+        <v>806.6882642434482</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>468.0510870891944</v>
+        <v>1145.318380320712</v>
       </c>
       <c r="C38" t="n">
-        <v>468.0510870891944</v>
+        <v>1145.318380320712</v>
       </c>
       <c r="D38" t="n">
-        <v>468.0510870891944</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="E38" t="n">
-        <v>42.07414723705197</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="F38" t="n">
-        <v>42.07414723705197</v>
+        <v>722.0257595057121</v>
       </c>
       <c r="G38" t="n">
-        <v>42.07414723705197</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="H38" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I38" t="n">
-        <v>82.68042202224524</v>
+        <v>82.6804220222449</v>
       </c>
       <c r="J38" t="n">
-        <v>218.2468288562432</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K38" t="n">
-        <v>429.6707399497118</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L38" t="n">
-        <v>697.9573333441465</v>
+        <v>697.9573333441459</v>
       </c>
       <c r="M38" t="n">
         <v>1001.624145372458</v>
       </c>
       <c r="N38" t="n">
-        <v>1310.954347754826</v>
+        <v>1310.954347754825</v>
       </c>
       <c r="O38" t="n">
         <v>1600.879106339949</v>
       </c>
       <c r="P38" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q38" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R38" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S38" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T38" t="n">
-        <v>1963.153242801367</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="U38" t="n">
-        <v>1704.956720258087</v>
+        <v>1845.510839309317</v>
       </c>
       <c r="V38" t="n">
-        <v>1704.956720258087</v>
+        <v>1565.166744612242</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.956720258087</v>
+        <v>1565.166744612242</v>
       </c>
       <c r="X38" t="n">
-        <v>1293.236721425834</v>
+        <v>1565.166744612242</v>
       </c>
       <c r="Y38" t="n">
-        <v>887.8994513807245</v>
+        <v>1565.166744612242</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F39" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G39" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H39" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I39" t="n">
-        <v>61.80940056264829</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J39" t="n">
-        <v>425.9352661328915</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K39" t="n">
-        <v>571.4106484638128</v>
+        <v>571.410648463813</v>
       </c>
       <c r="L39" t="n">
-        <v>774.5476657226884</v>
+        <v>774.5476657226885</v>
       </c>
       <c r="M39" t="n">
         <v>1014.744474587678</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.702722019281</v>
+        <v>715.4334633039513</v>
       </c>
       <c r="C40" t="n">
-        <v>844.7301588981969</v>
+        <v>543.4609001828672</v>
       </c>
       <c r="D40" t="n">
-        <v>681.4133860249676</v>
+        <v>380.144127309638</v>
       </c>
       <c r="E40" t="n">
-        <v>515.2051801778211</v>
+        <v>213.9359214624915</v>
       </c>
       <c r="F40" t="n">
-        <v>343.3434059523815</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G40" t="n">
-        <v>177.9745224075063</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H40" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I40" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J40" t="n">
         <v>161.1036919739774</v>
@@ -7338,46 +7338,46 @@
         <v>241.4748775894093</v>
       </c>
       <c r="L40" t="n">
-        <v>688.5956499668032</v>
+        <v>396.1700439321714</v>
       </c>
       <c r="M40" t="n">
-        <v>1209.263222025321</v>
+        <v>916.8376159906893</v>
       </c>
       <c r="N40" t="n">
-        <v>1719.951698126947</v>
+        <v>1029.493169250435</v>
       </c>
       <c r="O40" t="n">
-        <v>1820.706458442881</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P40" t="n">
-        <v>1903.821991506513</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q40" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R40" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S40" t="n">
         <v>1949.049234102926</v>
       </c>
       <c r="T40" t="n">
-        <v>1709.504436289004</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="U40" t="n">
-        <v>1429.36842885263</v>
+        <v>1931.069968099928</v>
       </c>
       <c r="V40" t="n">
-        <v>1206.868690731347</v>
+        <v>1649.358500707957</v>
       </c>
       <c r="W40" t="n">
-        <v>1206.868690731347</v>
+        <v>1374.50609688047</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.868690731347</v>
+        <v>1131.942200326275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1206.868690731347</v>
+        <v>905.5994320160169</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1316.467889714794</v>
+        <v>894.9518170758943</v>
       </c>
       <c r="C41" t="n">
-        <v>1316.467889714794</v>
+        <v>468.0510870891944</v>
       </c>
       <c r="D41" t="n">
-        <v>893.1752688997942</v>
+        <v>468.0510870891944</v>
       </c>
       <c r="E41" t="n">
-        <v>467.1983290476518</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="F41" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G41" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H41" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I41" t="n">
-        <v>82.68042202224524</v>
+        <v>82.68042202224494</v>
       </c>
       <c r="J41" t="n">
-        <v>218.2468288562432</v>
+        <v>218.2468288562426</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6707399497118</v>
+        <v>429.6707399497113</v>
       </c>
       <c r="L41" t="n">
-        <v>697.9573333441467</v>
+        <v>697.9573333441458</v>
       </c>
       <c r="M41" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.954347754826</v>
+        <v>1310.954347754825</v>
       </c>
       <c r="O41" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P41" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q41" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R41" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S41" t="n">
-        <v>2044.455574966373</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="T41" t="n">
-        <v>2044.455574966373</v>
+        <v>1907.029104192578</v>
       </c>
       <c r="U41" t="n">
-        <v>2044.455574966373</v>
+        <v>1648.832581649298</v>
       </c>
       <c r="V41" t="n">
-        <v>2044.455574966373</v>
+        <v>1291.343166775547</v>
       </c>
       <c r="W41" t="n">
-        <v>1736.316254006324</v>
+        <v>894.9518170758943</v>
       </c>
       <c r="X41" t="n">
-        <v>1736.316254006324</v>
+        <v>894.9518170758943</v>
       </c>
       <c r="Y41" t="n">
-        <v>1736.316254006324</v>
+        <v>894.9518170758943</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F42" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G42" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H42" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I42" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J42" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K42" t="n">
-        <v>308.4266117949372</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L42" t="n">
-        <v>669.0921654377823</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M42" t="n">
-        <v>909.2889743027717</v>
+        <v>728.3031320743902</v>
       </c>
       <c r="N42" t="n">
-        <v>1158.184482769315</v>
+        <v>977.1986405409334</v>
       </c>
       <c r="O42" t="n">
-        <v>1382.264530611908</v>
+        <v>1201.278688383526</v>
       </c>
       <c r="P42" t="n">
-        <v>1558.966900987038</v>
+        <v>1377.981058758656</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.975886624954</v>
+        <v>1774.431386909859</v>
       </c>
       <c r="R42" t="n">
         <v>1815.456240001607</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.284231874709</v>
+        <v>880.8023468488266</v>
       </c>
       <c r="C43" t="n">
-        <v>839.3116687536253</v>
+        <v>708.8297837277426</v>
       </c>
       <c r="D43" t="n">
-        <v>754.4747813734828</v>
+        <v>545.5130108545133</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2665755263363</v>
+        <v>379.3048050073668</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4048013008967</v>
+        <v>207.4430307819272</v>
       </c>
       <c r="G43" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H43" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I43" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J43" t="n">
-        <v>161.1036919739774</v>
+        <v>112.182607696983</v>
       </c>
       <c r="K43" t="n">
-        <v>241.4748775894093</v>
+        <v>439.836402426437</v>
       </c>
       <c r="L43" t="n">
-        <v>725.570910064208</v>
+        <v>547.5435413100706</v>
       </c>
       <c r="M43" t="n">
-        <v>1246.238482122726</v>
+        <v>1068.211113368588</v>
       </c>
       <c r="N43" t="n">
-        <v>1493.622871201643</v>
+        <v>1180.866666628334</v>
       </c>
       <c r="O43" t="n">
-        <v>1972.07995582078</v>
+        <v>1659.323751247471</v>
       </c>
       <c r="P43" t="n">
-        <v>2055.195488884412</v>
+        <v>2055.195488884411</v>
       </c>
       <c r="Q43" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R43" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S43" t="n">
         <v>1949.049234102926</v>
       </c>
       <c r="T43" t="n">
-        <v>1709.504436289004</v>
+        <v>1949.049234102926</v>
       </c>
       <c r="U43" t="n">
-        <v>1709.504436289004</v>
+        <v>1853.874955090608</v>
       </c>
       <c r="V43" t="n">
-        <v>1427.792968897033</v>
+        <v>1572.163487698637</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.792968897033</v>
+        <v>1297.31108387115</v>
       </c>
       <c r="X43" t="n">
-        <v>1427.792968897033</v>
+        <v>1297.31108387115</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.450200586775</v>
+        <v>1070.968315560892</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.532000534134</v>
+        <v>658.4676061585071</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.532000534134</v>
+        <v>658.4676061585071</v>
       </c>
       <c r="D44" t="n">
-        <v>1221.532000534134</v>
+        <v>658.4676061585071</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.149941316312</v>
+        <v>658.4676061585071</v>
       </c>
       <c r="F44" t="n">
-        <v>722.0257595057121</v>
+        <v>319.6665328490009</v>
       </c>
       <c r="G44" t="n">
         <v>319.6665328490009</v>
       </c>
       <c r="H44" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I44" t="n">
-        <v>82.68042202224498</v>
+        <v>82.68042202224456</v>
       </c>
       <c r="J44" t="n">
-        <v>218.2468288562426</v>
+        <v>218.246828856242</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6707399497114</v>
+        <v>429.6707399497108</v>
       </c>
       <c r="L44" t="n">
-        <v>697.957333344146</v>
+        <v>697.9573333441454</v>
       </c>
       <c r="M44" t="n">
-        <v>1001.624145372458</v>
+        <v>1001.624145372457</v>
       </c>
       <c r="N44" t="n">
         <v>1310.954347754825</v>
       </c>
       <c r="O44" t="n">
-        <v>1600.87910633995</v>
+        <v>1600.879106339949</v>
       </c>
       <c r="P44" t="n">
-        <v>1842.716767506419</v>
+        <v>1842.716767506418</v>
       </c>
       <c r="Q44" t="n">
-        <v>2016.498708143957</v>
+        <v>2016.498708143956</v>
       </c>
       <c r="R44" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="S44" t="n">
-        <v>2103.707361852598</v>
+        <v>2044.455574966372</v>
       </c>
       <c r="T44" t="n">
-        <v>1891.448521909667</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="U44" t="n">
-        <v>1633.251999366387</v>
+        <v>1832.196735023441</v>
       </c>
       <c r="V44" t="n">
-        <v>1633.251999366387</v>
+        <v>1474.70732014969</v>
       </c>
       <c r="W44" t="n">
-        <v>1633.251999366387</v>
+        <v>1078.315970450037</v>
       </c>
       <c r="X44" t="n">
-        <v>1221.532000534134</v>
+        <v>1078.315970450037</v>
       </c>
       <c r="Y44" t="n">
-        <v>1221.532000534134</v>
+        <v>1078.315970450037</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>271.8598758821998</v>
       </c>
       <c r="F45" t="n">
-        <v>178.214045565104</v>
+        <v>178.2140455651039</v>
       </c>
       <c r="G45" t="n">
-        <v>85.21957929949144</v>
+        <v>85.21957929949141</v>
       </c>
       <c r="H45" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I45" t="n">
-        <v>85.26670640706013</v>
+        <v>61.80940056264826</v>
       </c>
       <c r="J45" t="n">
-        <v>162.9512294640159</v>
+        <v>139.493923619604</v>
       </c>
       <c r="K45" t="n">
-        <v>308.4266117949372</v>
+        <v>284.9693059505253</v>
       </c>
       <c r="L45" t="n">
-        <v>511.5636290538127</v>
+        <v>488.1063232094008</v>
       </c>
       <c r="M45" t="n">
-        <v>751.7604379188022</v>
+        <v>728.3031320743902</v>
       </c>
       <c r="N45" t="n">
-        <v>1000.655946385345</v>
+        <v>977.1986405409334</v>
       </c>
       <c r="O45" t="n">
-        <v>1224.735994227938</v>
+        <v>1487.720030896814</v>
       </c>
       <c r="P45" t="n">
-        <v>1401.438364603068</v>
+        <v>1664.422401271944</v>
       </c>
       <c r="Q45" t="n">
         <v>1774.431386909859</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.764117367796</v>
+        <v>543.5716890785117</v>
       </c>
       <c r="C46" t="n">
-        <v>917.7915542467121</v>
+        <v>371.5991259574277</v>
       </c>
       <c r="D46" t="n">
-        <v>754.4747813734828</v>
+        <v>208.2823530841984</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2665755263363</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4048013008967</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="G46" t="n">
-        <v>251.0359177560215</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="H46" t="n">
-        <v>115.1355425855672</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="I46" t="n">
-        <v>42.07414723705197</v>
+        <v>42.07414723705195</v>
       </c>
       <c r="J46" t="n">
         <v>161.1036919739774</v>
       </c>
       <c r="K46" t="n">
-        <v>488.7574867034314</v>
+        <v>241.4748775894093</v>
       </c>
       <c r="L46" t="n">
-        <v>972.85351917823</v>
+        <v>349.1820164730429</v>
       </c>
       <c r="M46" t="n">
-        <v>1086.945066465606</v>
+        <v>518.8046931488092</v>
       </c>
       <c r="N46" t="n">
-        <v>1597.633542567232</v>
+        <v>1029.493169250435</v>
       </c>
       <c r="O46" t="n">
-        <v>1972.07995582078</v>
+        <v>1507.950253869572</v>
       </c>
       <c r="P46" t="n">
-        <v>2055.195488884412</v>
+        <v>1903.821991506512</v>
       </c>
       <c r="Q46" t="n">
-        <v>2103.707361852598</v>
+        <v>2103.707361852597</v>
       </c>
       <c r="R46" t="n">
-        <v>2103.707361852598</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="S46" t="n">
-        <v>2103.707361852598</v>
+        <v>2096.600331737727</v>
       </c>
       <c r="T46" t="n">
-        <v>2103.707361852598</v>
+        <v>2039.344201310862</v>
       </c>
       <c r="U46" t="n">
-        <v>1823.571354416224</v>
+        <v>1759.208193874488</v>
       </c>
       <c r="V46" t="n">
-        <v>1541.859887024253</v>
+        <v>1477.496726482517</v>
       </c>
       <c r="W46" t="n">
-        <v>1541.859887024253</v>
+        <v>1202.64432265503</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.27285439012</v>
+        <v>960.0804261008352</v>
       </c>
       <c r="Y46" t="n">
-        <v>1279.930086079862</v>
+        <v>733.7376577905773</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>289.3346894073611</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.1197337211823</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>410.6828533041836</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6355005744171</v>
+        <v>209.6917917457437</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.1197337211815</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>410.6828533041836</v>
+        <v>410.6828533041834</v>
       </c>
       <c r="N16" t="n">
-        <v>47.46265399911992</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>280.4006789871582</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>159.1197337211814</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>159.1197337211817</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>77.95470569606665</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>375.7009779035467</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.8139820488703</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>208.3650940568166</v>
       </c>
       <c r="M22" t="n">
-        <v>410.6828533041836</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>364.7047098429038</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.6404410796723</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>192.9358820370471</v>
+        <v>287.0738987519888</v>
       </c>
       <c r="M25" t="n">
-        <v>410.6828533041837</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.1197337211815</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>276.4562150884992</v>
+        <v>410.6828533041835</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>115.5537750308013</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>283.3038012055843</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.03088820177706</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.1197337211815</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,19 +10278,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>410.6828533041837</v>
+        <v>410.6828533041835</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>267.8268192003553</v>
       </c>
       <c r="P31" t="n">
-        <v>114.9242965964173</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>289.3346894073614</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>265.6404410796723</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>77.95470569606665</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>410.6828533041834</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>41.36005712203558</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>289.3346894073611</v>
+        <v>182.8139820488703</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>230.8572283000044</v>
       </c>
       <c r="L37" t="n">
-        <v>342.8420540341011</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>410.6828533041838</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>289.3346894073611</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>289.3346894073613</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>342.8420540341011</v>
+        <v>47.46265399911968</v>
       </c>
       <c r="M40" t="n">
-        <v>410.6828533041838</v>
+        <v>410.6828533041836</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>159.1197337211814</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>289.3346894073612</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>29.29356805174395</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>410.6828533041837</v>
+        <v>410.6828533041836</v>
       </c>
       <c r="N43" t="n">
-        <v>136.0897331506781</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>289.3346894073614</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>265.6404410796723</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>56.09204988726268</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>276.4562150884991</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.335634390144</v>
+        <v>231.4845480172721</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8164617558294</v>
+        <v>274.8164617558295</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.65926901736315</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>59.96967386775498</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>155.1935410001097</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3346473620106</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>199.676327708063</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>401.6797499618386</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.335634390144</v>
+        <v>303.4139581831988</v>
       </c>
       <c r="H14" t="n">
         <v>274.8164617558294</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>74.10673828072318</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>237.149349835783</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>199.1710281013143</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>393.2400039962001</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>251.8307783095321</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>58.65926901736314</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>35.45583339188752</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.7151947094264</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.08619007951685</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>208.7151048008045</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.03489428412212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.83093422806888</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3346473620106</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.5595249690151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>350.7751263370595</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.2662663455983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>132.5763138858314</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1115464721751</v>
+        <v>120.1292604473838</v>
       </c>
       <c r="T25" t="n">
-        <v>237.149349835783</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.91452591902129</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.335634390144</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>59.96967386775538</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.6037907147485</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5413714187498</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3346473620106</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>183.6384104216921</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.57712851775227</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>193.2010459292315</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H29" t="n">
         <v>274.8164617558294</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>54.76022681333819</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>147.1690299229809</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58.91452591902129</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.335634390144</v>
+        <v>369.8529510898654</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.1362515435019</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>53.24404734809862</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>128.7998585423886</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7151947094264</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.5413714187498</v>
       </c>
       <c r="I34" t="n">
-        <v>72.33078139503003</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.335634390144</v>
+        <v>66.0448754204449</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8164617558294</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>58.65926901736314</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1362515435019</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>319.3650043708947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H37" t="n">
         <v>134.5413714187498</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S37" t="n">
-        <v>153.1115464721751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>130.4717632791817</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.8681150419314</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25396,19 +25396,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.335634390144</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8164617558294</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T38" t="n">
-        <v>129.6469427001465</v>
+        <v>210.1362515435019</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>76.37386697490882</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I40" t="n">
-        <v>72.33078139503003</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>259.5351740190428</v>
       </c>
       <c r="V40" t="n">
-        <v>58.61961197798087</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.335634390144</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.65926901736314</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1362515435019</v>
+        <v>15.42477646008317</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6145573178477</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>87.36950845220809</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.69508663815586</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.035959813722023</v>
+        <v>7.03595981372203</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.149349835783</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3346473620106</v>
+        <v>183.1121111398166</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25873,13 +25873,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>348.0789318279773</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>85.45987741608258</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.335634390144</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.65926901736314</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6145573178477</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7151947094264</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5413714187498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.33078139503004</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.035959813722023</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1115464721751</v>
+        <v>153.1115464721752</v>
       </c>
       <c r="T46" t="n">
-        <v>237.149349835783</v>
+        <v>180.4657807131873</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>204.907095280861</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356542.5516741059</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741059</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>356542.5516741059</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741059</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356542.5516741059</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356542.5516741059</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356542.551674106</v>
+        <v>356542.5516741058</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>444673.0679014573</v>
+        <v>444673.0679014574</v>
       </c>
       <c r="C2" t="n">
         <v>444673.7947401454</v>
@@ -26322,34 +26322,34 @@
         <v>444674.7276398959</v>
       </c>
       <c r="E2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182153</v>
       </c>
       <c r="F2" t="n">
-        <v>261676.8388182153</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="G2" t="n">
         <v>261676.8388182154</v>
       </c>
       <c r="H2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182155</v>
       </c>
       <c r="I2" t="n">
         <v>261676.8388182155</v>
       </c>
       <c r="J2" t="n">
-        <v>261676.8388182156</v>
+        <v>261676.8388182153</v>
       </c>
       <c r="K2" t="n">
-        <v>261676.8388182156</v>
+        <v>261676.8388182153</v>
       </c>
       <c r="L2" t="n">
-        <v>261676.8388182155</v>
+        <v>261676.8388182153</v>
       </c>
       <c r="M2" t="n">
-        <v>261676.8388182155</v>
+        <v>261676.8388182154</v>
       </c>
       <c r="N2" t="n">
-        <v>261676.8388182154</v>
+        <v>261676.8388182153</v>
       </c>
       <c r="O2" t="n">
         <v>261676.8388182154</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>43630.90718593417</v>
       </c>
       <c r="C3" t="n">
-        <v>2668.793398452307</v>
+        <v>2668.793398452301</v>
       </c>
       <c r="D3" t="n">
         <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>506983.174800889</v>
+        <v>506983.1748008889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.247732905903832e-10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131063.0723507787</v>
+        <v>131063.0723507786</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>311834.7298003431</v>
+        <v>311834.7298003432</v>
       </c>
       <c r="C4" t="n">
         <v>310927.8361259664</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
         <v>27773.74636980091</v>
       </c>
       <c r="F4" t="n">
-        <v>27773.74636980089</v>
+        <v>27773.7463698009</v>
       </c>
       <c r="G4" t="n">
         <v>27773.74636980091</v>
       </c>
       <c r="H4" t="n">
+        <v>27773.74636980091</v>
+      </c>
+      <c r="I4" t="n">
         <v>27773.7463698009</v>
       </c>
-      <c r="I4" t="n">
-        <v>27773.74636980091</v>
-      </c>
       <c r="J4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.7463698009</v>
       </c>
       <c r="K4" t="n">
         <v>27773.74636980091</v>
       </c>
       <c r="L4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.7463698009</v>
       </c>
       <c r="M4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.74636980089</v>
       </c>
       <c r="N4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.7463698009</v>
       </c>
       <c r="O4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.7463698009</v>
       </c>
       <c r="P4" t="n">
-        <v>27773.74636980091</v>
+        <v>27773.7463698009</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42605.14469095521</v>
+        <v>42605.14469095519</v>
       </c>
       <c r="F5" t="n">
-        <v>42605.14469095521</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="G5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="H5" t="n">
         <v>42605.14469095521</v>
       </c>
       <c r="I5" t="n">
-        <v>42605.14469095521</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="J5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="K5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="L5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="M5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="N5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="O5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
       <c r="P5" t="n">
-        <v>42605.14469095522</v>
+        <v>42605.1446909552</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54592.76061138237</v>
+        <v>54571.08319264954</v>
       </c>
       <c r="C6" t="n">
-        <v>96398.60344662785</v>
+        <v>96376.9283725359</v>
       </c>
       <c r="D6" t="n">
-        <v>96886.24369534894</v>
+        <v>96864.5716306109</v>
       </c>
       <c r="E6" t="n">
-        <v>-315685.2270434297</v>
+        <v>-316297.2148785601</v>
       </c>
       <c r="F6" t="n">
-        <v>191297.9477574592</v>
+        <v>190685.9599223289</v>
       </c>
       <c r="G6" t="n">
-        <v>191297.9477574593</v>
+        <v>190685.9599223289</v>
       </c>
       <c r="H6" t="n">
-        <v>191297.9477574593</v>
+        <v>190685.959922329</v>
       </c>
       <c r="I6" t="n">
-        <v>191297.9477574594</v>
+        <v>190685.9599223289</v>
       </c>
       <c r="J6" t="n">
-        <v>191297.9477574595</v>
+        <v>190685.9599223286</v>
       </c>
       <c r="K6" t="n">
-        <v>191297.9477574595</v>
+        <v>190685.9599223288</v>
       </c>
       <c r="L6" t="n">
-        <v>191297.9477574594</v>
+        <v>190685.9599223287</v>
       </c>
       <c r="M6" t="n">
-        <v>60234.87540668067</v>
+        <v>59622.88757155021</v>
       </c>
       <c r="N6" t="n">
-        <v>191297.9477574592</v>
+        <v>190685.9599223287</v>
       </c>
       <c r="O6" t="n">
-        <v>191297.9477574592</v>
+        <v>190685.9599223289</v>
       </c>
       <c r="P6" t="n">
-        <v>191297.9477574594</v>
+        <v>190685.9599223289</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>487.559302330079</v>
+        <v>487.5593023300789</v>
       </c>
       <c r="F3" t="n">
         <v>487.559302330079</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="F4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="G4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="H4" t="n">
         <v>525.9268404631495</v>
       </c>
       <c r="I4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="J4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="K4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="L4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="O4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="P4" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>45.27845430264449</v>
       </c>
       <c r="C3" t="n">
-        <v>2.930801160608375</v>
+        <v>2.930801160608368</v>
       </c>
       <c r="D3" t="n">
         <v>3.761692542679064</v>
       </c>
       <c r="E3" t="n">
-        <v>435.5883543241471</v>
+        <v>435.588354324147</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.7688191049817e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.960037396301824</v>
+        <v>1.960037396301823</v>
       </c>
       <c r="H11" t="n">
-        <v>20.07323298487606</v>
+        <v>20.07323298487605</v>
       </c>
       <c r="I11" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092611</v>
       </c>
       <c r="J11" t="n">
-        <v>166.3557239643721</v>
+        <v>166.355723964372</v>
       </c>
       <c r="K11" t="n">
-        <v>249.3241069498283</v>
+        <v>249.3241069498282</v>
       </c>
       <c r="L11" t="n">
-        <v>309.3086014169003</v>
+        <v>309.3086014169002</v>
       </c>
       <c r="M11" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N11" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156253</v>
       </c>
       <c r="O11" t="n">
-        <v>330.2442508561492</v>
+        <v>330.2442508561491</v>
       </c>
       <c r="P11" t="n">
         <v>281.8558276349478</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.6619883798887</v>
+        <v>211.6619883798886</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S11" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822784</v>
       </c>
       <c r="T11" t="n">
-        <v>8.580063702311238</v>
+        <v>8.580063702311236</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1568029917041459</v>
+        <v>0.1568029917041458</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.048712461615642</v>
+        <v>1.048712461615641</v>
       </c>
       <c r="H12" t="n">
-        <v>10.12835456349844</v>
+        <v>10.12835456349843</v>
       </c>
       <c r="I12" t="n">
-        <v>36.10698606878416</v>
+        <v>36.10698606878415</v>
       </c>
       <c r="J12" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237954</v>
       </c>
       <c r="K12" t="n">
-        <v>169.3440644706276</v>
+        <v>169.3440644706275</v>
       </c>
       <c r="L12" t="n">
-        <v>227.7039930363261</v>
+        <v>227.703993036326</v>
       </c>
       <c r="M12" t="n">
         <v>265.719819769893</v>
       </c>
       <c r="N12" t="n">
-        <v>272.7526327252015</v>
+        <v>272.7526327252014</v>
       </c>
       <c r="O12" t="n">
-        <v>249.5153723915075</v>
+        <v>249.5153723915074</v>
       </c>
       <c r="P12" t="n">
-        <v>200.2580840079904</v>
+        <v>200.2580840079903</v>
       </c>
       <c r="Q12" t="n">
         <v>133.8672258020247</v>
       </c>
       <c r="R12" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136414</v>
       </c>
       <c r="S12" t="n">
-        <v>19.47937401290456</v>
+        <v>19.47937401290455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.227047158880589</v>
+        <v>4.227047158880588</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.0689942408957659</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837487</v>
       </c>
       <c r="H13" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177335</v>
       </c>
       <c r="I13" t="n">
-        <v>26.44010118209675</v>
+        <v>26.44010118209674</v>
       </c>
       <c r="J13" t="n">
-        <v>62.15981465936105</v>
+        <v>62.15981465936103</v>
       </c>
       <c r="K13" t="n">
         <v>102.1476702258755</v>
       </c>
       <c r="L13" t="n">
-        <v>130.7138496771494</v>
+        <v>130.7138496771493</v>
       </c>
       <c r="M13" t="n">
-        <v>137.8194270504517</v>
+        <v>137.8194270504516</v>
       </c>
       <c r="N13" t="n">
         <v>134.5423891167578</v>
       </c>
       <c r="O13" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P13" t="n">
-        <v>106.3358845606454</v>
+        <v>106.3358845606453</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.62145465184193</v>
+        <v>73.62145465184192</v>
       </c>
       <c r="R13" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597654</v>
       </c>
       <c r="S13" t="n">
-        <v>15.32215053388133</v>
+        <v>15.32215053388132</v>
       </c>
       <c r="T13" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576016</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04795665268820454</v>
+        <v>0.04795665268820453</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I14" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J14" t="n">
         <v>166.3557239643721</v>
@@ -32007,10 +32007,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M14" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N14" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O14" t="n">
         <v>330.2442508561492</v>
@@ -32022,10 +32022,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S14" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T14" t="n">
         <v>8.580063702311238</v>
@@ -32077,7 +32077,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J15" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K15" t="n">
         <v>169.3440644706276</v>
@@ -32101,7 +32101,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R15" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S15" t="n">
         <v>19.47937401290456</v>
@@ -32110,7 +32110,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H16" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I16" t="n">
         <v>26.44010118209675</v>
@@ -32171,7 +32171,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O16" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P16" t="n">
         <v>106.3358845606454</v>
@@ -32180,13 +32180,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R16" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S16" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T16" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U16" t="n">
         <v>0.04795665268820454</v>
@@ -32232,7 +32232,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I17" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J17" t="n">
         <v>166.3557239643721</v>
@@ -32244,10 +32244,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M17" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N17" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O17" t="n">
         <v>330.2442508561492</v>
@@ -32259,10 +32259,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R17" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S17" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T17" t="n">
         <v>8.580063702311238</v>
@@ -32314,7 +32314,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J18" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K18" t="n">
         <v>169.3440644706276</v>
@@ -32338,7 +32338,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R18" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S18" t="n">
         <v>19.47937401290456</v>
@@ -32347,7 +32347,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H19" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I19" t="n">
         <v>26.44010118209675</v>
@@ -32408,7 +32408,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O19" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P19" t="n">
         <v>106.3358845606454</v>
@@ -32417,13 +32417,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R19" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S19" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T19" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U19" t="n">
         <v>0.04795665268820454</v>
@@ -32469,7 +32469,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I20" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J20" t="n">
         <v>166.3557239643721</v>
@@ -32481,10 +32481,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M20" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N20" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O20" t="n">
         <v>330.2442508561492</v>
@@ -32496,10 +32496,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R20" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S20" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T20" t="n">
         <v>8.580063702311238</v>
@@ -32551,7 +32551,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J21" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K21" t="n">
         <v>169.3440644706276</v>
@@ -32575,7 +32575,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R21" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S21" t="n">
         <v>19.47937401290456</v>
@@ -32584,7 +32584,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H22" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I22" t="n">
         <v>26.44010118209675</v>
@@ -32645,7 +32645,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O22" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P22" t="n">
         <v>106.3358845606454</v>
@@ -32654,13 +32654,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R22" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S22" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T22" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U22" t="n">
         <v>0.04795665268820454</v>
@@ -32706,7 +32706,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I23" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J23" t="n">
         <v>166.3557239643721</v>
@@ -32718,10 +32718,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M23" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N23" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O23" t="n">
         <v>330.2442508561492</v>
@@ -32733,10 +32733,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R23" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S23" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T23" t="n">
         <v>8.580063702311238</v>
@@ -32788,7 +32788,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J24" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K24" t="n">
         <v>169.3440644706276</v>
@@ -32812,7 +32812,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R24" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S24" t="n">
         <v>19.47937401290456</v>
@@ -32821,7 +32821,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H25" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I25" t="n">
         <v>26.44010118209675</v>
@@ -32882,7 +32882,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O25" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P25" t="n">
         <v>106.3358845606454</v>
@@ -32891,13 +32891,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R25" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S25" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T25" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U25" t="n">
         <v>0.04795665268820454</v>
@@ -32943,7 +32943,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I26" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J26" t="n">
         <v>166.3557239643721</v>
@@ -32955,10 +32955,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M26" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N26" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O26" t="n">
         <v>330.2442508561492</v>
@@ -32970,10 +32970,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R26" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S26" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T26" t="n">
         <v>8.580063702311238</v>
@@ -33025,7 +33025,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J27" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K27" t="n">
         <v>169.3440644706276</v>
@@ -33049,7 +33049,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R27" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S27" t="n">
         <v>19.47937401290456</v>
@@ -33058,7 +33058,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H28" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I28" t="n">
         <v>26.44010118209675</v>
@@ -33119,7 +33119,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O28" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P28" t="n">
         <v>106.3358845606454</v>
@@ -33128,13 +33128,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R28" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S28" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T28" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U28" t="n">
         <v>0.04795665268820454</v>
@@ -33180,7 +33180,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I29" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J29" t="n">
         <v>166.3557239643721</v>
@@ -33192,10 +33192,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M29" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N29" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O29" t="n">
         <v>330.2442508561492</v>
@@ -33207,10 +33207,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R29" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S29" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T29" t="n">
         <v>8.580063702311238</v>
@@ -33262,7 +33262,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J30" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K30" t="n">
         <v>169.3440644706276</v>
@@ -33286,7 +33286,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R30" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S30" t="n">
         <v>19.47937401290456</v>
@@ -33295,7 +33295,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H31" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I31" t="n">
         <v>26.44010118209675</v>
@@ -33356,7 +33356,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O31" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P31" t="n">
         <v>106.3358845606454</v>
@@ -33365,13 +33365,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R31" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S31" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T31" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U31" t="n">
         <v>0.04795665268820454</v>
@@ -33417,7 +33417,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I32" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J32" t="n">
         <v>166.3557239643721</v>
@@ -33429,10 +33429,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M32" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N32" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O32" t="n">
         <v>330.2442508561492</v>
@@ -33444,10 +33444,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R32" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S32" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T32" t="n">
         <v>8.580063702311238</v>
@@ -33499,7 +33499,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J33" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K33" t="n">
         <v>169.3440644706276</v>
@@ -33523,7 +33523,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R33" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S33" t="n">
         <v>19.47937401290456</v>
@@ -33532,7 +33532,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H34" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I34" t="n">
         <v>26.44010118209675</v>
@@ -33593,7 +33593,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O34" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P34" t="n">
         <v>106.3358845606454</v>
@@ -33602,13 +33602,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R34" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S34" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T34" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U34" t="n">
         <v>0.04795665268820454</v>
@@ -33654,7 +33654,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I35" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J35" t="n">
         <v>166.3557239643721</v>
@@ -33666,10 +33666,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M35" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N35" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O35" t="n">
         <v>330.2442508561492</v>
@@ -33681,10 +33681,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R35" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S35" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T35" t="n">
         <v>8.580063702311238</v>
@@ -33736,7 +33736,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J36" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K36" t="n">
         <v>169.3440644706276</v>
@@ -33760,7 +33760,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R36" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S36" t="n">
         <v>19.47937401290456</v>
@@ -33769,7 +33769,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H37" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I37" t="n">
         <v>26.44010118209675</v>
@@ -33830,7 +33830,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O37" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P37" t="n">
         <v>106.3358845606454</v>
@@ -33839,13 +33839,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R37" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S37" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T37" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U37" t="n">
         <v>0.04795665268820454</v>
@@ -33891,7 +33891,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I38" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J38" t="n">
         <v>166.3557239643721</v>
@@ -33903,10 +33903,10 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M38" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N38" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O38" t="n">
         <v>330.2442508561492</v>
@@ -33918,10 +33918,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R38" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S38" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T38" t="n">
         <v>8.580063702311238</v>
@@ -33973,7 +33973,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J39" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K39" t="n">
         <v>169.3440644706276</v>
@@ -33997,7 +33997,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R39" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S39" t="n">
         <v>19.47937401290456</v>
@@ -34006,7 +34006,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H40" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I40" t="n">
         <v>26.44010118209675</v>
@@ -34067,7 +34067,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O40" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P40" t="n">
         <v>106.3358845606454</v>
@@ -34076,13 +34076,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R40" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S40" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T40" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U40" t="n">
         <v>0.04795665268820454</v>
@@ -34128,7 +34128,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I41" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J41" t="n">
         <v>166.3557239643721</v>
@@ -34143,7 +34143,7 @@
         <v>344.1654164633829</v>
       </c>
       <c r="N41" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O41" t="n">
         <v>330.2442508561492</v>
@@ -34155,10 +34155,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R41" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S41" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T41" t="n">
         <v>8.580063702311238</v>
@@ -34210,7 +34210,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J42" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K42" t="n">
         <v>169.3440644706276</v>
@@ -34234,7 +34234,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R42" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S42" t="n">
         <v>19.47937401290456</v>
@@ -34243,7 +34243,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H43" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I43" t="n">
         <v>26.44010118209675</v>
@@ -34304,7 +34304,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O43" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P43" t="n">
         <v>106.3358845606454</v>
@@ -34313,13 +34313,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R43" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S43" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T43" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U43" t="n">
         <v>0.04795665268820454</v>
@@ -34365,7 +34365,7 @@
         <v>20.07323298487606</v>
       </c>
       <c r="I44" t="n">
-        <v>75.56434172092614</v>
+        <v>75.56434172092612</v>
       </c>
       <c r="J44" t="n">
         <v>166.3557239643721</v>
@@ -34377,13 +34377,13 @@
         <v>309.3086014169003</v>
       </c>
       <c r="M44" t="n">
-        <v>344.1654164633829</v>
+        <v>344.1654164633828</v>
       </c>
       <c r="N44" t="n">
-        <v>349.7343727156255</v>
+        <v>349.7343727156254</v>
       </c>
       <c r="O44" t="n">
-        <v>330.2442508561498</v>
+        <v>330.2442508561492</v>
       </c>
       <c r="P44" t="n">
         <v>281.8558276349478</v>
@@ -34392,10 +34392,10 @@
         <v>211.6619883798887</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1221990954446</v>
+        <v>123.1221990954445</v>
       </c>
       <c r="S44" t="n">
-        <v>44.66435216822786</v>
+        <v>44.66435216822785</v>
       </c>
       <c r="T44" t="n">
         <v>8.580063702311238</v>
@@ -34447,7 +34447,7 @@
         <v>36.10698606878416</v>
       </c>
       <c r="J45" t="n">
-        <v>99.08032954237957</v>
+        <v>99.08032954237956</v>
       </c>
       <c r="K45" t="n">
         <v>169.3440644706276</v>
@@ -34471,7 +34471,7 @@
         <v>133.8672258020247</v>
       </c>
       <c r="R45" t="n">
-        <v>65.11216494136417</v>
+        <v>65.11216494136416</v>
       </c>
       <c r="S45" t="n">
         <v>19.47937401290456</v>
@@ -34480,7 +34480,7 @@
         <v>4.227047158880589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06899424089576593</v>
+        <v>0.06899424089576592</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.879205299283749</v>
+        <v>0.8792052992837489</v>
       </c>
       <c r="H46" t="n">
-        <v>7.816934388177338</v>
+        <v>7.816934388177337</v>
       </c>
       <c r="I46" t="n">
         <v>26.44010118209675</v>
@@ -34541,7 +34541,7 @@
         <v>134.5423891167578</v>
       </c>
       <c r="O46" t="n">
-        <v>124.271672666034</v>
+        <v>124.2716726660339</v>
       </c>
       <c r="P46" t="n">
         <v>106.3358845606454</v>
@@ -34550,13 +34550,13 @@
         <v>73.62145465184193</v>
       </c>
       <c r="R46" t="n">
-        <v>39.53226736597656</v>
+        <v>39.53226736597655</v>
       </c>
       <c r="S46" t="n">
         <v>15.32215053388133</v>
       </c>
       <c r="T46" t="n">
-        <v>3.756604460576018</v>
+        <v>3.756604460576017</v>
       </c>
       <c r="U46" t="n">
         <v>0.04795665268820454</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696261</v>
       </c>
       <c r="J11" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K11" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L11" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M11" t="n">
-        <v>306.7341535639511</v>
+        <v>306.7341535639509</v>
       </c>
       <c r="N11" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811793</v>
       </c>
       <c r="O11" t="n">
-        <v>292.8532915001251</v>
+        <v>292.853291500125</v>
       </c>
       <c r="P11" t="n">
         <v>244.2804658247165</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.5373137752907</v>
+        <v>175.5373137752906</v>
       </c>
       <c r="R11" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064804</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.93459931878416</v>
+        <v>43.62884764647288</v>
       </c>
       <c r="J12" t="n">
-        <v>367.8039046164074</v>
+        <v>78.46921520904621</v>
       </c>
       <c r="K12" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L12" t="n">
-        <v>205.1889063220965</v>
+        <v>205.1889063220964</v>
       </c>
       <c r="M12" t="n">
-        <v>242.6230392575651</v>
+        <v>242.623039257565</v>
       </c>
       <c r="N12" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O12" t="n">
-        <v>226.3434826692853</v>
+        <v>226.3434826692852</v>
       </c>
       <c r="P12" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.1201875130462</v>
+        <v>270.2399212342285</v>
       </c>
       <c r="R12" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.52305867545918</v>
+        <v>120.2318633706318</v>
       </c>
       <c r="K13" t="n">
-        <v>81.18301577316355</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L13" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886854</v>
       </c>
       <c r="M13" t="n">
-        <v>525.9268404631495</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N13" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O13" t="n">
-        <v>207.4079857420266</v>
+        <v>311.4642769133532</v>
       </c>
       <c r="P13" t="n">
-        <v>399.8704420575151</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q13" t="n">
         <v>201.9044144909954</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J14" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K14" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L14" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M14" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N14" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O14" t="n">
         <v>292.8532915001251</v>
@@ -35670,7 +35670,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J15" t="n">
-        <v>78.46921520904624</v>
+        <v>367.8039046164076</v>
       </c>
       <c r="K15" t="n">
         <v>146.9448306372942</v>
@@ -35737,19 +35737,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N15" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O15" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P15" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.2399212342278</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R15" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2318633706318</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K16" t="n">
-        <v>81.18301577316355</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L16" t="n">
-        <v>108.7950897814482</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M16" t="n">
-        <v>525.9268404631495</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="N16" t="n">
-        <v>161.2561421402773</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O16" t="n">
-        <v>483.2899844637744</v>
+        <v>382.1731641547677</v>
       </c>
       <c r="P16" t="n">
-        <v>399.8704420575151</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J17" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K17" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L17" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M17" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N17" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O17" t="n">
         <v>292.8532915001251</v>
@@ -35907,7 +35907,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R17" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>43.62884764647289</v>
       </c>
       <c r="J18" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K18" t="n">
-        <v>306.0645643584756</v>
+        <v>146.9448306372942</v>
       </c>
       <c r="L18" t="n">
         <v>205.1889063220965</v>
@@ -35974,13 +35974,13 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N18" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O18" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P18" t="n">
-        <v>178.4872428031618</v>
+        <v>337.6069765243434</v>
       </c>
       <c r="Q18" t="n">
         <v>111.1201875130462</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2318633706318</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K19" t="n">
-        <v>159.1377214692302</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L19" t="n">
-        <v>488.9858913886856</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M19" t="n">
         <v>115.2439871589658</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7934881411574</v>
+        <v>489.4944660447041</v>
       </c>
       <c r="O19" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P19" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J20" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K20" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L20" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M20" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N20" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O20" t="n">
         <v>292.8532915001251</v>
@@ -36144,7 +36144,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R20" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>19.93459931878416</v>
       </c>
       <c r="J21" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K21" t="n">
         <v>146.9448306372942</v>
@@ -36211,19 +36211,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N21" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3434826692853</v>
+        <v>515.6781720766465</v>
       </c>
       <c r="P21" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q21" t="n">
-        <v>293.9341695619165</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R21" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K22" t="n">
-        <v>81.18301577316355</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L22" t="n">
-        <v>488.9858913886856</v>
+        <v>317.1601838382648</v>
       </c>
       <c r="M22" t="n">
-        <v>525.9268404631495</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N22" t="n">
-        <v>478.4981979840612</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O22" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P22" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q22" t="n">
         <v>201.9044144909954</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J23" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K23" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L23" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M23" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N23" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O23" t="n">
         <v>292.8532915001251</v>
@@ -36381,7 +36381,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R23" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J24" t="n">
-        <v>78.46921520904624</v>
+        <v>367.8039046164076</v>
       </c>
       <c r="K24" t="n">
         <v>146.9448306372942</v>
@@ -36448,19 +36448,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N24" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O24" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P24" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q24" t="n">
-        <v>376.7606285927185</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R24" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>41.52305867545918</v>
       </c>
       <c r="K25" t="n">
-        <v>81.18301577316355</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L25" t="n">
-        <v>301.7309718184953</v>
+        <v>395.868988533437</v>
       </c>
       <c r="M25" t="n">
-        <v>525.9268404631495</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N25" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O25" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P25" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.00189188705698</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J26" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K26" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L26" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M26" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N26" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O26" t="n">
         <v>292.8532915001251</v>
@@ -36618,7 +36618,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R26" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J27" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K27" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L27" t="n">
-        <v>205.1889063220965</v>
+        <v>494.5235957294578</v>
       </c>
       <c r="M27" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N27" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O27" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P27" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q27" t="n">
-        <v>270.2399212342278</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R27" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K28" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L28" t="n">
-        <v>488.9858913886856</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M28" t="n">
-        <v>391.7002022474651</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N28" t="n">
         <v>515.846945557198</v>
@@ -36770,10 +36770,10 @@
         <v>101.7724851676095</v>
       </c>
       <c r="P28" t="n">
-        <v>83.9550839026589</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.00189188705698</v>
+        <v>164.5556669178583</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J29" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K29" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L29" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M29" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N29" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O29" t="n">
         <v>292.8532915001251</v>
@@ -36855,7 +36855,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R29" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J30" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K30" t="n">
         <v>146.9448306372942</v>
@@ -36919,22 +36919,22 @@
         <v>205.1889063220965</v>
       </c>
       <c r="M30" t="n">
-        <v>242.6230392575651</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N30" t="n">
-        <v>251.4096045116599</v>
+        <v>257.4404927134369</v>
       </c>
       <c r="O30" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P30" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q30" t="n">
-        <v>270.2399212342278</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R30" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>330.9634290196504</v>
       </c>
       <c r="L31" t="n">
-        <v>488.9858913886856</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M31" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N31" t="n">
         <v>113.7934881411574</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7724851676095</v>
+        <v>369.5993043679648</v>
       </c>
       <c r="P31" t="n">
-        <v>198.8793804990762</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J32" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K32" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L32" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M32" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N32" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O32" t="n">
         <v>292.8532915001251</v>
@@ -37092,7 +37092,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R32" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J33" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K33" t="n">
         <v>146.9448306372942</v>
@@ -37159,19 +37159,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N33" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O33" t="n">
-        <v>226.3434826692853</v>
+        <v>515.6781720766467</v>
       </c>
       <c r="P33" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q33" t="n">
-        <v>376.7606285927185</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R33" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2318633706318</v>
+        <v>41.52305867545918</v>
       </c>
       <c r="K34" t="n">
-        <v>159.1377214692302</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L34" t="n">
-        <v>488.9858913886856</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M34" t="n">
-        <v>115.2439871589658</v>
+        <v>525.9268404631492</v>
       </c>
       <c r="N34" t="n">
-        <v>113.7934881411574</v>
+        <v>515.846945557198</v>
       </c>
       <c r="O34" t="n">
-        <v>483.2899844637744</v>
+        <v>143.1325422896451</v>
       </c>
       <c r="P34" t="n">
-        <v>399.8704420575151</v>
+        <v>83.95508390265888</v>
       </c>
       <c r="Q34" t="n">
         <v>201.9044144909954</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J35" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K35" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L35" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M35" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N35" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O35" t="n">
         <v>292.8532915001251</v>
@@ -37329,7 +37329,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R35" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>19.93459931878416</v>
       </c>
       <c r="J36" t="n">
-        <v>367.8039046164073</v>
+        <v>261.2831972579166</v>
       </c>
       <c r="K36" t="n">
         <v>146.9448306372942</v>
@@ -37396,19 +37396,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N36" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O36" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P36" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q36" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R36" t="n">
-        <v>41.43924554722003</v>
+        <v>147.9599529057107</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K37" t="n">
-        <v>81.18301577316355</v>
+        <v>312.040244073168</v>
       </c>
       <c r="L37" t="n">
-        <v>451.6371438155493</v>
+        <v>488.9858913886855</v>
       </c>
       <c r="M37" t="n">
-        <v>525.9268404631496</v>
+        <v>115.2439871589658</v>
       </c>
       <c r="N37" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O37" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P37" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q37" t="n">
-        <v>201.9044144909954</v>
+        <v>49.00189188705698</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J38" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K38" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L38" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M38" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N38" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O38" t="n">
         <v>292.8532915001251</v>
@@ -37566,7 +37566,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R38" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>19.93459931878416</v>
       </c>
       <c r="J39" t="n">
-        <v>367.8039046164073</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K39" t="n">
-        <v>146.9448306372942</v>
+        <v>436.2795200446555</v>
       </c>
       <c r="L39" t="n">
         <v>205.1889063220965</v>
@@ -37633,19 +37633,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N39" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O39" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P39" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q39" t="n">
         <v>111.1201875130462</v>
       </c>
       <c r="R39" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K40" t="n">
-        <v>81.18301577316355</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L40" t="n">
-        <v>451.6371438155493</v>
+        <v>156.2577437805678</v>
       </c>
       <c r="M40" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N40" t="n">
-        <v>515.846945557198</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O40" t="n">
-        <v>101.7724851676095</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P40" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q40" t="n">
         <v>201.9044144909954</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J41" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K41" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L41" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M41" t="n">
         <v>306.7341535639511</v>
       </c>
       <c r="N41" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O41" t="n">
         <v>292.8532915001251</v>
@@ -37803,7 +37803,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R41" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J42" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K42" t="n">
         <v>146.9448306372942</v>
       </c>
       <c r="L42" t="n">
-        <v>364.3086400432779</v>
+        <v>205.1889063220965</v>
       </c>
       <c r="M42" t="n">
         <v>242.6230392575651</v>
       </c>
       <c r="N42" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O42" t="n">
         <v>226.3434826692853</v>
       </c>
       <c r="P42" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.1201875130462</v>
+        <v>400.4548769204075</v>
       </c>
       <c r="R42" t="n">
-        <v>147.9599529057107</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2318633706318</v>
+        <v>70.81662672720313</v>
       </c>
       <c r="K43" t="n">
-        <v>81.18301577316355</v>
+        <v>330.9634290196504</v>
       </c>
       <c r="L43" t="n">
-        <v>488.9858913886856</v>
+        <v>108.7950897814482</v>
       </c>
       <c r="M43" t="n">
-        <v>525.9268404631496</v>
+        <v>525.9268404631493</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8832212918355</v>
+        <v>113.7934881411574</v>
       </c>
       <c r="O43" t="n">
         <v>483.2899844637744</v>
       </c>
       <c r="P43" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q43" t="n">
         <v>49.00189188705698</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.01643917696263</v>
+        <v>41.01643917696262</v>
       </c>
       <c r="J44" t="n">
         <v>136.9357644787855</v>
       </c>
       <c r="K44" t="n">
-        <v>213.559506155019</v>
+        <v>213.5595061550189</v>
       </c>
       <c r="L44" t="n">
-        <v>270.9965589842774</v>
+        <v>270.9965589842773</v>
       </c>
       <c r="M44" t="n">
-        <v>306.7341535639511</v>
+        <v>306.734153563951</v>
       </c>
       <c r="N44" t="n">
-        <v>312.4547498811795</v>
+        <v>312.4547498811794</v>
       </c>
       <c r="O44" t="n">
-        <v>292.8532915001257</v>
+        <v>292.8532915001251</v>
       </c>
       <c r="P44" t="n">
         <v>244.2804658247165</v>
@@ -38040,7 +38040,7 @@
         <v>175.5373137752907</v>
       </c>
       <c r="R44" t="n">
-        <v>88.08954920064809</v>
+        <v>88.08954920064807</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.62884764647289</v>
+        <v>19.93459931878416</v>
       </c>
       <c r="J45" t="n">
-        <v>78.46921520904624</v>
+        <v>78.46921520904623</v>
       </c>
       <c r="K45" t="n">
         <v>146.9448306372942</v>
@@ -38107,19 +38107,19 @@
         <v>242.6230392575651</v>
       </c>
       <c r="N45" t="n">
-        <v>251.4096045116599</v>
+        <v>251.4096045116598</v>
       </c>
       <c r="O45" t="n">
-        <v>226.3434826692853</v>
+        <v>515.6781720766467</v>
       </c>
       <c r="P45" t="n">
-        <v>178.4872428031618</v>
+        <v>178.4872428031617</v>
       </c>
       <c r="Q45" t="n">
-        <v>376.7606285927185</v>
+        <v>111.1201875130462</v>
       </c>
       <c r="R45" t="n">
-        <v>41.43924554722003</v>
+        <v>41.43924554722001</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>120.2318633706318</v>
       </c>
       <c r="K46" t="n">
-        <v>330.9634290196504</v>
+        <v>81.18301577316353</v>
       </c>
       <c r="L46" t="n">
-        <v>488.9858913886856</v>
+        <v>108.7950897814482</v>
       </c>
       <c r="M46" t="n">
-        <v>115.2439871589658</v>
+        <v>171.3360370462285</v>
       </c>
       <c r="N46" t="n">
         <v>515.846945557198</v>
       </c>
       <c r="O46" t="n">
-        <v>378.2287002561085</v>
+        <v>483.2899844637744</v>
       </c>
       <c r="P46" t="n">
-        <v>83.9550839026589</v>
+        <v>399.870442057515</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.00189188705698</v>
+        <v>201.9044144909954</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
